--- a/fewshot_job/parameters.xlsx
+++ b/fewshot_job/parameters.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/szonja/Documents/ITU/Semester4/NaturalLanguage/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EF6ABF-F973-E848-9A65-EF36A0ACF892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3390928D-52E9-AA41-B3C2-3EE0FD43AD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{E873BC31-C9E3-4E46-97E7-C482C8547F48}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{E873BC31-C9E3-4E46-97E7-C482C8547F48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="16">
   <si>
     <t>prefix</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>test(dev)</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>last train iter</t>
   </si>
 </sst>
 </file>
@@ -446,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B762E9-111E-D74E-AA3E-967F52EAAB58}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,9 +469,10 @@
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,8 +491,14 @@
       <c r="F1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -493,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f>8300/4</f>
+        <f t="shared" ref="D2:D10" si="0">8300/4</f>
         <v>2075</v>
       </c>
       <c r="E2">
@@ -501,11 +517,14 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <f>1800/4</f>
+        <f t="shared" ref="F2:F10" si="1">1800/4</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -516,19 +535,22 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <f>8300/4</f>
+        <f t="shared" si="0"/>
         <v>2075</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E11" si="0">80/((2*C3)*4)</f>
+        <f t="shared" ref="E3:E11" si="2">80/((2*C3)*4)</f>
         <v>2</v>
       </c>
       <c r="F3">
-        <f>1800/4</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -539,19 +561,22 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <f>8300/4</f>
+        <f t="shared" si="0"/>
         <v>2075</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F4">
-        <f>1800/4</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -562,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <f>8300/4</f>
+        <f t="shared" si="0"/>
         <v>2075</v>
       </c>
       <c r="E5">
@@ -570,11 +595,14 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <f>1800/4</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -585,19 +613,22 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <f>8300/4</f>
+        <f t="shared" si="0"/>
         <v>2075</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E7" si="1">80/((2*C6)*4)</f>
+        <f t="shared" ref="E6:E7" si="3">80/((2*C6)*4)</f>
         <v>2</v>
       </c>
       <c r="F6">
-        <f>1800/4</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -608,19 +639,22 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <f>8300/4</f>
+        <f t="shared" si="0"/>
         <v>2075</v>
       </c>
       <c r="E7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f>1800/4</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -631,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <f>8300/4</f>
+        <f t="shared" si="0"/>
         <v>2075</v>
       </c>
       <c r="E8">
@@ -639,11 +673,14 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <f>1800/4</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -654,19 +691,22 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <f>8300/4</f>
+        <f t="shared" si="0"/>
         <v>2075</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E10" si="2">80/((2*C9)*4)</f>
+        <f t="shared" ref="E9:E10" si="4">80/((2*C9)*4)</f>
         <v>2</v>
       </c>
       <c r="F9">
-        <f>1800/4</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -677,19 +717,22 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <f>8300/4</f>
+        <f t="shared" si="0"/>
         <v>2075</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F10">
-        <f>1800/4</f>
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -704,15 +747,18 @@
         <v>700</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F11">
-        <f>600/4</f>
+        <f t="shared" ref="F11:F19" si="5">600/4</f>
         <v>150</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -727,15 +773,18 @@
         <v>700</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12" si="3">80/((2*C12)*4)</f>
+        <f t="shared" ref="E12" si="6">80/((2*C12)*4)</f>
         <v>2</v>
       </c>
       <c r="F12">
-        <f>600/4</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -750,15 +799,18 @@
         <v>700</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E14" si="4">80/((2*C13)*4)</f>
+        <f t="shared" ref="E13:E14" si="7">80/((2*C13)*4)</f>
         <v>1</v>
       </c>
       <c r="F13">
-        <f>600/4</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -773,15 +825,18 @@
         <v>550</v>
       </c>
       <c r="E14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="F14">
-        <f>600/4</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -796,15 +851,18 @@
         <v>550</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15" si="5">80/((2*C15)*4)</f>
+        <f t="shared" ref="E15" si="8">80/((2*C15)*4)</f>
         <v>2</v>
       </c>
       <c r="F15">
-        <f>600/4</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -819,15 +877,18 @@
         <v>550</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:E17" si="6">80/((2*C16)*4)</f>
+        <f t="shared" ref="E16:E17" si="9">80/((2*C16)*4)</f>
         <v>1</v>
       </c>
       <c r="F16">
-        <f>600/4</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -842,15 +903,18 @@
         <v>825</v>
       </c>
       <c r="E17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="F17">
-        <f>600/4</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -865,15 +929,18 @@
         <v>825</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18" si="7">80/((2*C18)*4)</f>
+        <f t="shared" ref="E18" si="10">80/((2*C18)*4)</f>
         <v>2</v>
       </c>
       <c r="F18">
-        <f>600/4</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -888,15 +955,18 @@
         <v>825</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19" si="8">80/((2*C19)*4)</f>
+        <f t="shared" ref="E19" si="11">80/((2*C19)*4)</f>
         <v>1</v>
       </c>
       <c r="F19">
-        <f>600/4</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>7</v>
       </c>
@@ -907,7 +977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -921,7 +991,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -935,7 +1005,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -949,7 +1019,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
